--- a/tickers1.xlsx
+++ b/tickers1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://foguthfinancial-my.sharepoint.com/personal/tendress_foguthfinancial_com/Documents/Documents/PythonProjects/StockHistory/factsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE4D8AB-E561-4840-8851-76B753E1D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5EE4D8AB-E561-4840-8851-76B753E1D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE691AE-AE6C-44CA-A558-2A0C4D03791B}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="675" windowWidth="25035" windowHeight="11655" xr2:uid="{068A2046-9123-4017-BA6D-004B0D599FAE}"/>
+    <workbookView xWindow="1905" yWindow="2025" windowWidth="25035" windowHeight="11655" xr2:uid="{068A2046-9123-4017-BA6D-004B0D599FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>QQQM</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>NCLO</t>
+  </si>
+  <si>
+    <t>Ticker</t>
   </si>
 </sst>
 </file>
@@ -587,231 +590,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE94468-448A-483F-B360-37E80BC92570}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A43">
+  <conditionalFormatting sqref="A2:A44">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
